--- a/development/stimuli/trial_lists/practice_trials.xlsx
+++ b/development/stimuli/trial_lists/practice_trials.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\trial_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khen_heller\subliminal_priming_w_motion_capture\development\stimuli\trial_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F35D4-EF35-495A-A39B-0CA3C36E88E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3FFB5A5B-D877-4A04-A73A-84428958D537}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -336,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,18 +346,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -373,9 +366,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -690,244 +682,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8390025D-2547-4026-A4E0-1236345A194B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
+    <col min="15" max="16" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -966,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O2" s="1">
+        <v>81</v>
+      </c>
+      <c r="P2" s="1">
         <v>80</v>
-      </c>
-      <c r="P2" s="1">
-        <v>79</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
@@ -1002,11 +996,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1015,69 +1009,69 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N3" s="2">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2">
-        <v>61</v>
-      </c>
-      <c r="P3" s="2">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="N3" s="1">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>0.27</v>
       </c>
-      <c r="S3" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="S3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V3" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1116,13 +1110,13 @@
         <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O4" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -1152,11 +1146,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1166,38 +1160,38 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>L5+I5*2</f>
+        <v>2</v>
       </c>
       <c r="N5" s="1">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1241,22 +1235,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1266,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O6" s="1">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -1302,11 +1296,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1316,263 +1310,263 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
+        <f>L7+I7*2</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N8" s="1">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1">
+        <v>82</v>
+      </c>
+      <c r="P8" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="1">
-        <v>27</v>
-      </c>
-      <c r="P7" s="1">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>64</v>
+      </c>
+      <c r="O9" s="1">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
         <v>0.27</v>
       </c>
-      <c r="S7" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="S9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N10" s="1">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1">
         <v>80</v>
       </c>
-      <c r="O8" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>32</v>
-      </c>
-      <c r="O9" s="2">
-        <v>44</v>
-      </c>
-      <c r="P9" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>78</v>
-      </c>
-      <c r="O10" s="1">
-        <v>42</v>
-      </c>
       <c r="P10" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1602,11 +1596,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1615,69 +1609,69 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <v>68</v>
-      </c>
-      <c r="O11" s="2">
-        <v>49</v>
-      </c>
-      <c r="P11" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>79</v>
+      </c>
+      <c r="O11" s="1">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>0.27</v>
       </c>
-      <c r="S11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="S11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -1690,294 +1684,294 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>69</v>
+      </c>
+      <c r="O12" s="1">
+        <v>50</v>
+      </c>
+      <c r="P12" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N13" s="1">
+        <v>65</v>
+      </c>
+      <c r="O13" s="1">
+        <v>67</v>
+      </c>
+      <c r="P13" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="2">
-        <v>66</v>
-      </c>
-      <c r="P12" s="2">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N13" s="1">
-        <v>36</v>
-      </c>
-      <c r="O13" s="1">
-        <v>61</v>
-      </c>
-      <c r="P13" s="1">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="N14" s="1">
+        <v>37</v>
+      </c>
+      <c r="O14" s="1">
+        <v>62</v>
+      </c>
+      <c r="P14" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
         <v>0.27</v>
       </c>
-      <c r="S13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="S14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V14" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N14" s="2">
-        <v>76</v>
-      </c>
-      <c r="O14" s="2">
-        <v>37</v>
-      </c>
-      <c r="P14" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2">
+      <c r="N15" s="1">
+        <v>77</v>
+      </c>
+      <c r="O15" s="1">
+        <v>38</v>
+      </c>
+      <c r="P15" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
         <v>0.27</v>
       </c>
-      <c r="S14" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V14" s="2">
+      <c r="S15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V15" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>48</v>
-      </c>
-      <c r="O15" s="2">
-        <v>84</v>
-      </c>
-      <c r="P15" s="2">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>1</v>
       </c>
@@ -1991,38 +1985,38 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O16" s="1">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="P16" s="1">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
@@ -2052,11 +2046,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2066,22 +2060,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -2091,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O17" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P17" s="1">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="1">
         <v>1</v>
@@ -2127,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -2140,223 +2134,223 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>57</v>
+      </c>
+      <c r="O18" s="1">
+        <v>30</v>
+      </c>
+      <c r="P18" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N19" s="1">
+        <v>32</v>
+      </c>
+      <c r="O19" s="1">
+        <v>57</v>
+      </c>
+      <c r="P19" s="1">
         <v>31</v>
       </c>
-      <c r="O18" s="2">
-        <v>56</v>
-      </c>
-      <c r="P18" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
         <v>0.27</v>
       </c>
-      <c r="S18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V18" s="2">
+      <c r="S19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="1">
-        <v>36</v>
-      </c>
-      <c r="O19" s="1">
-        <v>33</v>
-      </c>
-      <c r="P19" s="1">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="N20" s="1">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1">
+        <v>34</v>
+      </c>
+      <c r="P20" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
         <v>0.27</v>
       </c>
-      <c r="S19" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="S20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>32</v>
-      </c>
-      <c r="O20" s="2">
-        <v>48</v>
-      </c>
-      <c r="P20" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2366,38 +2360,38 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="O21" s="1">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P21" s="1">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
@@ -2427,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -2441,38 +2435,38 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O22" s="1">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="P22" s="1">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="1">
         <v>1</v>
@@ -2502,11 +2496,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2515,189 +2509,189 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>35</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44</v>
+      </c>
+      <c r="P23" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N23" s="2">
-        <v>75</v>
-      </c>
-      <c r="O23" s="2">
-        <v>45</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="N24" s="1">
         <v>76</v>
       </c>
-      <c r="Q23" s="2">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="O24" s="1">
+        <v>46</v>
+      </c>
+      <c r="P24" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
         <v>0.27</v>
       </c>
-      <c r="S23" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V23" s="2">
+      <c r="S24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V24" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N24" s="2">
-        <v>82</v>
-      </c>
-      <c r="O24" s="2">
-        <v>28</v>
-      </c>
-      <c r="P24" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N25" s="1">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="O25" s="1">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="P25" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -2741,22 +2735,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -2766,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O26" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -2802,11 +2796,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2815,69 +2809,69 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>52</v>
-      </c>
-      <c r="O27" s="2">
-        <v>56</v>
-      </c>
-      <c r="P27" s="2">
-        <v>68</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>73</v>
+      </c>
+      <c r="O27" s="1">
+        <v>53</v>
+      </c>
+      <c r="P27" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.27</v>
       </c>
-      <c r="S27" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V27" s="2">
+      <c r="S27" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V27" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -2890,189 +2884,189 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>53</v>
+      </c>
+      <c r="O28" s="1">
+        <v>57</v>
+      </c>
+      <c r="P28" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N28" s="2">
-        <v>54</v>
-      </c>
-      <c r="O28" s="2">
-        <v>49</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="N29" s="1">
+        <v>55</v>
+      </c>
+      <c r="O29" s="1">
         <v>50</v>
       </c>
-      <c r="Q28" s="2">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="P29" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
         <v>0.27</v>
       </c>
-      <c r="S28" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="S29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V29" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N29" s="1">
-        <v>48</v>
-      </c>
-      <c r="O29" s="1">
-        <v>77</v>
-      </c>
-      <c r="P29" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>1</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N30" s="1">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O30" s="1">
         <v>78</v>
       </c>
       <c r="P30" s="1">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="1">
         <v>1</v>
@@ -3102,11 +3096,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3115,69 +3109,69 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="F31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="2">
-        <v>70</v>
-      </c>
-      <c r="O31" s="2">
-        <v>55</v>
-      </c>
-      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
         <v>61</v>
       </c>
-      <c r="Q31" s="2">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="O31" s="1">
+        <v>79</v>
+      </c>
+      <c r="P31" s="1">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.27</v>
       </c>
-      <c r="S31" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V31" s="2">
+      <c r="S31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V31" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -3191,19 +3185,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -3213,16 +3207,16 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O32" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P32" s="1">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="1">
         <v>1</v>
@@ -3252,11 +3246,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3265,219 +3259,219 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>67</v>
+      </c>
+      <c r="O33" s="1">
+        <v>69</v>
+      </c>
+      <c r="P33" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N33" s="2">
-        <v>67</v>
-      </c>
-      <c r="O33" s="2">
-        <v>38</v>
-      </c>
-      <c r="P33" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
+      <c r="N34" s="1">
+        <v>68</v>
+      </c>
+      <c r="O34" s="1">
+        <v>39</v>
+      </c>
+      <c r="P34" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
         <v>0.27</v>
       </c>
-      <c r="S33" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V33" s="2">
+      <c r="S34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V34" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N34" s="1">
-        <v>31</v>
-      </c>
-      <c r="O34" s="1">
-        <v>85</v>
-      </c>
-      <c r="P34" s="1">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1">
+      <c r="N35" s="1">
+        <v>32</v>
+      </c>
+      <c r="O35" s="1">
+        <v>86</v>
+      </c>
+      <c r="P35" s="1">
+        <v>82</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
         <v>0.27</v>
       </c>
-      <c r="S34" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="V34" s="1">
+      <c r="S35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V35" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
-        <v>47</v>
-      </c>
-      <c r="O35" s="2">
-        <v>27</v>
-      </c>
-      <c r="P35" s="2">
-        <v>55</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>1</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -3490,73 +3484,73 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="F36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N36" s="2">
-        <v>41</v>
-      </c>
-      <c r="O36" s="2">
-        <v>47</v>
-      </c>
-      <c r="P36" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>1</v>
-      </c>
-      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>48</v>
+      </c>
+      <c r="O36" s="1">
+        <v>28</v>
+      </c>
+      <c r="P36" s="1">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
         <v>0.27</v>
       </c>
-      <c r="S36" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V36" s="2">
+      <c r="S36" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V36" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3565,69 +3559,69 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N37" s="2">
-        <v>29</v>
-      </c>
-      <c r="O37" s="2">
-        <v>31</v>
-      </c>
-      <c r="P37" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2">
+      <c r="N37" s="1">
+        <v>30</v>
+      </c>
+      <c r="O37" s="1">
+        <v>32</v>
+      </c>
+      <c r="P37" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
         <v>0.27</v>
       </c>
-      <c r="S37" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V37" s="2">
+      <c r="S37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V37" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -3640,73 +3634,73 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N38" s="2">
-        <v>59</v>
-      </c>
-      <c r="O38" s="2">
-        <v>29</v>
-      </c>
-      <c r="P38" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>1</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="N38" s="1">
+        <v>60</v>
+      </c>
+      <c r="O38" s="1">
+        <v>30</v>
+      </c>
+      <c r="P38" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
         <v>0.27</v>
       </c>
-      <c r="S38" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V38" s="2">
+      <c r="S38" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V38" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3715,69 +3709,69 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="G39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N39" s="2">
-        <v>37</v>
-      </c>
-      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>52</v>
+      </c>
+      <c r="O39" s="1">
+        <v>43</v>
+      </c>
+      <c r="P39" s="1">
         <v>69</v>
       </c>
-      <c r="P39" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
         <v>0.27</v>
       </c>
-      <c r="S39" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="V39" s="2">
+      <c r="S39" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="V39" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -3791,38 +3785,38 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>L40+I40*2</f>
+        <v>1</v>
       </c>
       <c r="N40" s="1">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O40" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P40" s="1">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="1">
         <v>1</v>
@@ -3852,11 +3846,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3891,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O41" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P41" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q41" s="1">
         <v>1</v>
@@ -3928,7 +3922,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:BF481">
+  <sortState ref="F2:BG481">
     <sortCondition ref="W2:W481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
